--- a/biology/Zoologie/Galictis/Galictis.xlsx
+++ b/biology/Zoologie/Galictis/Galictis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grisons
-Les Grisons (Galictis)[2] sont un genre de Mustélidés d'Amérique centrale et méridionale qui comprend deux espèces.
+Les Grisons (Galictis) sont un genre de Mustélidés d'Amérique centrale et méridionale qui comprend deux espèces.
 Ce genre a été décrit pour la première fois en 1826 par le zoologiste britannique Thomas Bell (1792-1880).
 </t>
         </is>
@@ -513,11 +525,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (31 mai 2013)[3], ITIS      (31 mai 2013)[1], Catalogue of Life                                   (31 mai 2013)[4], NCBI  (31 mai 2013)[5] et Paleobiology Database                   (31 mai 2013)[6] :
-Galictis cuja (Molina, 1782) — petit grison[7],[2]
-Galictis vittata (Schreber, 1776) — grison ou grison d'Allemand[7],[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (31 mai 2013), ITIS      (31 mai 2013), Catalogue of Life                                   (31 mai 2013), NCBI  (31 mai 2013) et Paleobiology Database                   (31 mai 2013) :
+Galictis cuja (Molina, 1782) — petit grison,
+Galictis vittata (Schreber, 1776) — grison ou grison d'Allemand,</t>
         </is>
       </c>
     </row>
